--- a/03.COMP 513 - Computational Mathematics and Models I/02.COMP_513_Assignment_2_ex2007.xlsx
+++ b/03.COMP 513 - Computational Mathematics and Models I/02.COMP_513_Assignment_2_ex2007.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t>1.(a)</t>
   </si>
@@ -130,6 +130,9 @@
   <si>
     <t>3.(c)</t>
   </si>
+  <si>
+    <t>- π</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,25 +233,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2454,8 +2467,8 @@
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2467,7 +2480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2514600" y="26431874"/>
-          <a:ext cx="2162175" cy="714376"/>
+          <a:ext cx="2295525" cy="714376"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -2663,7 +2676,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -2675,7 +2688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1362075" y="29317950"/>
-          <a:ext cx="2105025" cy="457201"/>
+          <a:ext cx="2238375" cy="457201"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -3027,7 +3040,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -3039,7 +3052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="762000" y="34756725"/>
-          <a:ext cx="942976" cy="476250"/>
+          <a:ext cx="1085850" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -3125,13 +3138,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3142,8 +3155,112 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="35480625"/>
-          <a:ext cx="1009651" cy="476250"/>
+          <a:off x="1219201" y="35480625"/>
+          <a:ext cx="1133474" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Double Bracket 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="26203274"/>
+          <a:ext cx="1638299" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Double Bracket 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="26193749"/>
+          <a:ext cx="2428875" cy="714376"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -3462,15 +3579,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S151"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A106" zoomScale="60" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
@@ -3488,7 +3606,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
@@ -3497,7 +3615,7 @@
       <c r="D2" s="1">
         <v>-6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1">
@@ -3509,14 +3627,14 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="21"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>-3</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1">
         <v>-15</v>
       </c>
@@ -3567,45 +3685,45 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>-1</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
+      <c r="E11" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3618,7 +3736,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="14">
+      <c r="B14" s="15">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -3630,7 +3748,7 @@
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -3644,7 +3762,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +3772,7 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="1">
         <v>0</v>
       </c>
@@ -3671,10 +3789,10 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>-2</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>4</v>
       </c>
       <c r="D18" s="1">
@@ -3682,8 +3800,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="B19" s="14"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1">
         <v>-6</v>
       </c>
@@ -3713,36 +3831,36 @@
       <c r="B23" s="2">
         <v>-5</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="2">
         <v>-6</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="11"/>
@@ -3758,30 +3876,30 @@
       <c r="L27" s="11"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="14">
+      <c r="B29" s="15">
         <v>-2</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>-5</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="14"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="2">
         <v>-6</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2" t="s">
@@ -3842,12 +3960,12 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="2" t="s">
@@ -3856,10 +3974,10 @@
       <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="2" t="s">
@@ -3871,12 +3989,12 @@
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="2" t="s">
@@ -3888,10 +4006,10 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:12">
       <c r="B42" s="2">
@@ -3903,36 +4021,36 @@
       <c r="D42" s="2">
         <v>-1</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
@@ -4002,12 +4120,12 @@
       <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="O52" s="2"/>
@@ -4021,10 +4139,10 @@
       <c r="C53" s="2">
         <v>0</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" s="2" t="s">
@@ -4036,12 +4154,12 @@
       <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:17">
       <c r="B56" s="2" t="s">
@@ -4053,23 +4171,23 @@
       <c r="D56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="58" spans="2:17" ht="18.75" customHeight="1">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
     </row>
@@ -4108,7 +4226,7 @@
       </c>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="1">
@@ -4122,7 +4240,7 @@
       </c>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="1">
         <v>9.8719999999999999</v>
       </c>
@@ -4191,12 +4309,12 @@
       <c r="D71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:16">
       <c r="B72" s="2" t="s">
@@ -4208,58 +4326,58 @@
       <c r="D72" s="2">
         <v>5</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
     </row>
     <row r="74" spans="1:16">
       <c r="B74" s="2">
         <v>-2</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
     </row>
     <row r="75" spans="1:16">
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
     </row>
     <row r="76" spans="1:16">
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
     </row>
@@ -4303,16 +4421,18 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="1">
+        <f>B80*E80+C80*E81+D80*2.718</f>
         <v>9.4359999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="B84" s="14"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="1">
+        <f>3.142*E80+C81*E81+D81*2.718</f>
         <v>7.306</v>
       </c>
     </row>
@@ -4369,12 +4489,12 @@
       <c r="D89" s="2">
         <v>2</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" s="2" t="s">
@@ -4386,10 +4506,10 @@
       <c r="D90" s="2">
         <v>5</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="2" t="s">
@@ -4401,12 +4521,12 @@
       <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" s="2" t="s">
@@ -4418,41 +4538,41 @@
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:20">
       <c r="B99" s="2">
         <v>0</v>
       </c>
@@ -4482,7 +4602,7 @@
       <c r="R99" s="2"/>
       <c r="S99" s="12"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:20">
       <c r="B100" s="2" t="s">
         <v>5</v>
       </c>
@@ -4512,7 +4632,7 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:20">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -4533,12 +4653,12 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:20">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:20">
       <c r="B103" s="2">
         <v>0</v>
       </c>
@@ -4548,14 +4668,14 @@
       <c r="D103" s="2">
         <v>2</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
@@ -4565,12 +4685,12 @@
       <c r="D104" s="2">
         <v>5</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="106" spans="1:20">
       <c r="B106" s="2">
         <v>-2</v>
       </c>
@@ -4583,14 +4703,14 @@
       <c r="E106" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="1:20">
       <c r="B107" s="2">
         <v>4</v>
       </c>
@@ -4603,12 +4723,12 @@
       <c r="E107" s="2">
         <v>2</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="1:20">
       <c r="B108" s="2" t="s">
         <v>7</v>
       </c>
@@ -4621,25 +4741,48 @@
       <c r="E108" s="2">
         <v>1</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="B110" s="15" t="s">
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="B110" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="N111" s="14">
+        <v>0</v>
+      </c>
+      <c r="O111" s="14">
+        <v>1</v>
+      </c>
+      <c r="P111" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R111" s="14">
+        <v>0</v>
+      </c>
+      <c r="S111" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T111" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="B112" s="2">
         <v>0</v>
       </c>
@@ -4658,11 +4801,32 @@
       <c r="G112" s="2">
         <v>-1</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="H112" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N112" s="14">
+        <v>3.1419999999999999</v>
+      </c>
+      <c r="O112" s="14">
+        <v>0</v>
+      </c>
+      <c r="P112" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q112" s="14">
+        <v>4</v>
+      </c>
+      <c r="R112" s="14">
+        <v>0</v>
+      </c>
+      <c r="S112" s="14">
+        <v>3</v>
+      </c>
+      <c r="T112" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
@@ -4684,8 +4848,20 @@
       <c r="H113" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="Q113" s="24">
+        <v>2.718</v>
+      </c>
+      <c r="R113" s="14">
+        <v>0</v>
+      </c>
+      <c r="S113" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T113" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -4702,14 +4878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
-      <c r="B116" s="14" t="s">
+    <row r="116" spans="1:20">
+      <c r="B116" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="1">
+        <f t="array" ref="C116:F117">MMULT(N111:P112,Q111:T113)</f>
         <v>9.4359999999999999</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="14">
         <v>0</v>
       </c>
       <c r="E116" s="1">
@@ -4719,8 +4896,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
-      <c r="B117" s="14"/>
+    <row r="117" spans="1:20">
+      <c r="B117" s="15"/>
       <c r="C117" s="2">
         <v>7.306</v>
       </c>
@@ -4728,18 +4905,18 @@
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>-13.14</v>
+        <v>-13.141999999999999</v>
       </c>
       <c r="F117" s="1">
-        <v>7.0949999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
+        <v>7.0946666666666669</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:20">
       <c r="B120" s="1">
         <v>0</v>
       </c>
@@ -4770,7 +4947,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:20">
       <c r="B121" s="1">
         <v>4</v>
       </c>
@@ -4801,7 +4978,7 @@
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:20">
       <c r="E122" s="1">
         <v>-1</v>
       </c>
@@ -4823,39 +5000,47 @@
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
     </row>
-    <row r="124" spans="1:19">
-      <c r="B124" s="14" t="s">
+    <row r="124" spans="1:20">
+      <c r="B124" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="1">
+        <f>B120*E120+C120*E121+D120*E122</f>
         <v>10</v>
       </c>
       <c r="D124" s="1">
+        <f>B120*F120+C120*F121+D120*F122</f>
         <v>13</v>
       </c>
       <c r="E124" s="1">
+        <f>B120*G120+C120*G121+D120*G122</f>
         <v>4</v>
       </c>
       <c r="F124" s="1">
+        <f>B120*H120+C120*H121+D120*H122</f>
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
-      <c r="B125" s="14"/>
-      <c r="C125" s="1">
+    <row r="125" spans="1:20">
+      <c r="B125" s="15"/>
+      <c r="C125" s="14">
+        <f>B121*E120+C121*E121+D121*E122</f>
         <v>-7</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="14">
+        <f>B121*F120+C121*F121+D121*F122</f>
         <v>-5</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="14">
+        <f>B121*G120+C121*G121+D121*G122</f>
         <v>-6</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="14">
+        <f>B121*H120+C121*H121+D121*H122</f>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:20">
       <c r="A128" s="2" t="s">
         <v>29</v>
       </c>
@@ -4906,7 +5091,7 @@
       <c r="P131" s="2"/>
     </row>
     <row r="133" spans="1:18">
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C133" s="1">
@@ -4914,7 +5099,7 @@
       </c>
     </row>
     <row r="134" spans="1:18">
-      <c r="B134" s="14"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="1">
         <v>0</v>
       </c>
@@ -5003,10 +5188,11 @@
       <c r="R139" s="2"/>
     </row>
     <row r="141" spans="1:18">
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="1">
+        <f t="array" ref="C141:E143">MMULT(B137:D139,E137:G139)</f>
         <v>0</v>
       </c>
       <c r="D141" s="1">
@@ -5017,7 +5203,7 @@
       </c>
     </row>
     <row r="142" spans="1:18">
-      <c r="B142" s="14"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="1">
         <v>0</v>
       </c>
@@ -5029,7 +5215,7 @@
       </c>
     </row>
     <row r="143" spans="1:18">
-      <c r="B143" s="14"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="1">
         <v>0</v>
       </c>
@@ -5074,35 +5260,66 @@
       <c r="C148" s="1">
         <v>8</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>2</v>
+      <c r="D148" s="13">
+        <v>-1.5</v>
       </c>
       <c r="E148" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:16">
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="25">
+        <f>B147*D147+C147*D148</f>
         <v>-6.5</v>
       </c>
       <c r="D150" s="1">
+        <f>B147*E147+C147*E148</f>
         <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:16">
-      <c r="B151" s="14"/>
-      <c r="C151" s="1">
+      <c r="B151" s="15"/>
+      <c r="C151" s="25">
+        <f>B148*D147+C148*D148</f>
         <v>-15.5</v>
       </c>
       <c r="D151" s="1">
+        <f>B148*E147+C148*E148</f>
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B110:J110"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="E103:H104"/>
+    <mergeCell ref="F106:I108"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="E89:H90"/>
+    <mergeCell ref="E92:H93"/>
+    <mergeCell ref="B95:J96"/>
+    <mergeCell ref="C74:H76"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="B44:J45"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="D52:G53"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="D37:G38"/>
+    <mergeCell ref="E40:H42"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C23:F24"/>
@@ -5112,33 +5329,6 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="D37:G38"/>
-    <mergeCell ref="E40:H42"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C74:H76"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="B44:J45"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="D52:G53"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="E103:H104"/>
-    <mergeCell ref="F106:I108"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="E89:H90"/>
-    <mergeCell ref="E92:H93"/>
-    <mergeCell ref="B95:J96"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B110:J110"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B141:B143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
